--- a/output/StructureDefinition-rtlsMessageHeader.xlsx
+++ b/output/StructureDefinition-rtlsMessageHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T19:07:59-05:00</t>
+    <t>2025-06-24T13:00:09-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -490,7 +490,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/rtlsMessageEvents</t>
+    <t>http://hl7.org/fhir/uv/rtls/ValueSet/rtlsMessageEvents</t>
   </si>
   <si>
     <t>MSH-9.2</t>

--- a/output/StructureDefinition-rtlsMessageHeader.xlsx
+++ b/output/StructureDefinition-rtlsMessageHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:00:09-05:00</t>
+    <t>2025-06-24T13:13:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rtlsMessageHeader.xlsx
+++ b/output/StructureDefinition-rtlsMessageHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:13:18-05:00</t>
+    <t>2025-06-24T13:15:27-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rtlsMessageHeader.xlsx
+++ b/output/StructureDefinition-rtlsMessageHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:15:27-05:00</t>
+    <t>2025-06-24T13:30:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3863,7 +3863,7 @@
         <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>78</v>

--- a/output/StructureDefinition-rtlsMessageHeader.xlsx
+++ b/output/StructureDefinition-rtlsMessageHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:30:24-05:00</t>
+    <t>2025-06-24T13:47:41-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rtlsMessageHeader.xlsx
+++ b/output/StructureDefinition-rtlsMessageHeader.xlsx
@@ -63,13 +63,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:47:41-05:00</t>
+    <t>2025-06-25T12:47:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - Patient Administration Work Group</t>
+    <t>HL7 International / Patient Administration</t>
   </si>
   <si>
     <t>Contact</t>
